--- a/slimtoolkit_speaker/syscalls/speaker_nginx.xlsx
+++ b/slimtoolkit_speaker/syscalls/speaker_nginx.xlsx
@@ -369,24 +369,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>file descriptor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>shared memory</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>system wide</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Time related</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>system wide</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>file descriptor</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>shared memory</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>process control</t>
@@ -394,12 +394,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>message queues</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>network</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -411,115 +411,115 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>read</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>uname</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>setitimer</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>uname</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>read</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>mprotect</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>socket</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>stat</t>
+          <t>fstat</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>write</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sysinfo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>epoll_wait</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sysinfo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>write</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>brk</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>connect</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>fstat</t>
+          <t>lseek</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>close</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>capget</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>epoll_ctl</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>capget</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>close</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>rt_sigaction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>sendmsg</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>lseek</t>
+          <t>access</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mmap</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>capset</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mmap</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -528,28 +528,28 @@
           <t>rt_sigprocmask</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>recvmsg</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>chdir</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>munmap</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>fstatfs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>munmap</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -558,28 +558,28 @@
           <t>rt_sigreturn</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>bind</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>chdir</t>
+          <t>mkdir</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ioctl</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>prctl</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ioctl</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -588,28 +588,28 @@
           <t>getpid</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>listen</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>mkdir</t>
+          <t>unlink</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pread64</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>arch_prctl</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pread64</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -618,28 +618,28 @@
           <t>clone</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>socketpair</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>unlink</t>
+          <t>chown</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pwrite64</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
         <is>
           <t>gettid</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>pwrite64</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -648,28 +648,28 @@
           <t>execve</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>setsockopt</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>chown</t>
+          <t>fchown</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>dup2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
         <is>
           <t>futex</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>dup2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -682,20 +682,20 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>fchown</t>
+          <t>umask</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fcntl</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
         <is>
           <t>io_setup</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>fcntl</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -708,20 +708,20 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>umask</t>
+          <t>getdents64</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>epoll_create</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
         <is>
           <t>newfstatat</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>epoll_create</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -734,20 +734,20 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>getdents64</t>
+          <t>openat</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>eventfd2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>getrandom</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>eventfd2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -758,11 +758,7 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>openat</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
